--- a/Src/DetailedSamples/Samples/Workbook/Output/CreateWorkbook.xlsx
+++ b/Src/DetailedSamples/Samples/Workbook/Output/CreateWorkbook.xlsx
@@ -2,17 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R6b67a16439c04766"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="R4b5de409c3c34ed0"/>
+    <sheet name="Sheet1" sheetId="1" r:id="Re96424c4c4f24f61"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Create a Workbook</t>
   </si>
@@ -41,28 +40,22 @@
     <t xml:space="preserve">Winnipeg Jets</t>
   </si>
   <si>
+    <t xml:space="preserve">Edmonton Oilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vancouver Canucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calgary Flames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toronto Maple Leafs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ottawa Senators</t>
   </si>
   <si>
-    <t xml:space="preserve">Edmonton Oilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vancouver Canucks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calgary Flames</t>
-  </si>
-  <si>
     <t xml:space="preserve">Montreal Canadiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toronto Maple Leafs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
   </si>
 </sst>
 </file>
@@ -72,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -88,12 +81,6 @@
       <b/>
       <color theme="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -137,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -154,7 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -432,7 +418,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="19.9799995422363" customWidth="1"/>
-    <col min="2" max="2" width="4.51000022888184" customWidth="1"/>
+    <col min="2" max="2" width="5.1100001335144" customWidth="1"/>
     <col min="3" max="3" width="6.21999979019165" customWidth="1"/>
     <col min="4" max="4" width="6.73999977111816" customWidth="1" style="1"/>
     <col min="5" max="5" width="10.9099998474121" customWidth="1"/>
@@ -477,13 +463,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8">
-        <v>0.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7" t="b">
         <v>1</v>
@@ -497,19 +483,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8">
-        <v>0.660714285714286</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="9">
-        <v>44259</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="10">
@@ -517,19 +503,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8">
-        <v>0.607142857142857</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="E10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>44316</v>
+        <v>44282</v>
       </c>
     </row>
     <row r="11">
@@ -537,19 +523,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="7">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8">
-        <v>0.607142857142857</v>
+        <v>0.625</v>
       </c>
       <c r="E11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="9">
-        <v>44266</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="12">
@@ -557,19 +543,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="7">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8">
-        <v>0.517857142857143</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E12" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>44315</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="13">
@@ -577,19 +563,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="7">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8">
-        <v>0.160714285714286</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="9">
-        <v>44261</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="14">
@@ -597,39 +583,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="7">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14" s="8">
-        <v>0.0535714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>44289</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
+        <v>44262</v>
       </c>
     </row>
   </sheetData>
